--- a/Vivienda/28.14.xlsx
+++ b/Vivienda/28.14.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monse\Desktop\data\tabla madre\VIVIENDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Vivienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923817B-56C3-431B-A6EF-65E4A37DEC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Allegamiento" sheetId="2" r:id="rId1"/>
+    <sheet name="Allegamiento (2018)" sheetId="2" r:id="rId1"/>
     <sheet name="Tabla auxiliar" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -453,7 +454,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -713,27 +714,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G118" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:G118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G118" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:G118" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Codreg" dataDxfId="4"/>
-    <tableColumn id="2" name="Codprov" dataDxfId="3"/>
-    <tableColumn id="3" name="Codcom" dataDxfId="2"/>
-    <tableColumn id="4" name="Comuna" dataDxfId="1"/>
-    <tableColumn id="5" name="Región" dataDxfId="0"/>
-    <tableColumn id="6" name="Año"/>
-    <tableColumn id="7" name="Valor"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comuna" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Región" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Valor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A4:B5" totalsRowShown="0">
-  <autoFilter ref="A4:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="A4:B5" totalsRowShown="0">
+  <autoFilter ref="A4:B5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Fuente"/>
-    <tableColumn id="2" name="Link "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Fuente"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Link "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1001,10 +1002,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3737,10 +3738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
